--- a/biology/Zoologie/Gadiformes/Gadiformes.xlsx
+++ b/biology/Zoologie/Gadiformes/Gadiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gadiformes forment un ordre de poissons osseux (Ostéichthyens) à nageoires rayonnées (Actinopterygii) qui comprend dix-sept familles. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons effilés, qui peuvent avoir d'une à trois nageoires dorsales et une ou deux anales, souvent longues. Les pelviennes sont situées en position thoracique, jugulaire (transformée en organes tactiles) ou sont absentes[1]. Une grande partie des espèces de cet ordre sont inféodées aux abysses. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons effilés, qui peuvent avoir d'une à trois nageoires dorsales et une ou deux anales, souvent longues. Les pelviennes sont situées en position thoracique, jugulaire (transformée en organes tactiles) ou sont absentes. Une grande partie des espèces de cet ordre sont inféodées aux abysses. 
 Plusieurs espèces sont exploitées dans le cadre de la pêche commerciale, comme le merlu ou la morue. 
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les relations au sein des espèces de morues sont controversées depuis longtemps et ont fait l'objet de discussions scientifiques. Ce qui suit est une présentation systématique présentée en décembre 2020, basée sur la comparaison de 14 208 locus génétiques (plus de 2,8 millions de paires de bases) de 58 espèces de toutes les familles de morues[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les relations au sein des espèces de morues sont controversées depuis longtemps et ont fait l'objet de discussions scientifiques. Ce qui suit est une présentation systématique présentée en décembre 2020, basée sur la comparaison de 14 208 locus génétiques (plus de 2,8 millions de paires de bases) de 58 espèces de toutes les familles de morues.
 Sous-ordre Bregmacerotoidei
 famille Bregmacerotidae Gill, 1872
 Sous-ordre Gadoidei
@@ -568,7 +584,7 @@
 famille Macruronidae
 famille Steindachneriidae
 famille Macrouridae Gilbert et Hubbs, 1916 (les grenadiers)
-Cladogramme selon Adela Roa-Varón et al. (2020)[2] :
+Cladogramme selon Adela Roa-Varón et al. (2020) :
 </t>
         </is>
       </c>
